--- a/samples_test_result.xlsx
+++ b/samples_test_result.xlsx
@@ -424,35 +424,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://imgur.com/a/i3SZTZZ</t>
+          <t>https://imgur.com/a/BbBJXXo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://imgur.com/a/UUQHoee</t>
+          <t>https://imgur.com/a/8TTt2Z9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://imgur.com/a/zSoFKDP</t>
+          <t>https://imgur.com/a/rbZCb6d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://imgur.com/a/UcF4LOY</t>
+          <t>https://imgur.com/a/ZxkpoN9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://imgur.com/a/lIpC6Dd</t>
+          <t>https://imgur.com/a/mxFTuIk</t>
         </is>
       </c>
     </row>
